--- a/87c510adapter_BOM_PCBgogo.xlsx
+++ b/87c510adapter_BOM_PCBgogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\r1100s\87c510adapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F30267-E17C-442F-A523-DF2A386A94F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F807F6-6956-4821-8672-EF34D87F8ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Item #</t>
   </si>
@@ -202,29 +202,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>PL5-6</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2130S1*4GSE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linkman</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2130S1*5GSE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>A 1-pin header can be substituted.</t>
-  </si>
-  <si>
-    <t>A 1-pin header can be substituted.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>TMCP1E104MTRF</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -233,8 +210,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://xn--grupoirpr-f34h6a5u.com/index.php?main_page=product_info&amp;products_id=388265</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>28pin header  2.54mm round type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/32862361051.html</t>
   </si>
 </sst>
 </file>
@@ -786,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -924,7 +904,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
@@ -936,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -947,51 +927,33 @@
         <v>27</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
@@ -1136,12 +1098,10 @@
     <hyperlink ref="I7" r:id="rId1" xr:uid="{FFA8E969-43AE-414B-8EEC-9CD304C05DA7}"/>
     <hyperlink ref="I8" r:id="rId2" xr:uid="{52152A6C-BD72-4728-9BDF-78F1EE0D9B33}"/>
     <hyperlink ref="I9" r:id="rId3" xr:uid="{C12930B4-CFD6-42D9-BC70-1A834FF3AB4F}"/>
-    <hyperlink ref="I10" r:id="rId4" xr:uid="{56E77C6A-8BDE-4134-B956-62EE8149BC05}"/>
-    <hyperlink ref="I11" r:id="rId5" xr:uid="{E4003960-13D4-4A68-B9FD-86151F081BD4}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
